--- a/pred_ohlcv/54_21/2019-10-21 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 OMG ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>8375.5064</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>10512.7854</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>10512.7854</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>17371.57272630949</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>12586.68634285698</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>28008.52663072651</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>25829.87743072651</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>25825.95283072651</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>25825.95283072651</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>26239.95283072651</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>27944.48453072651</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>29105.47883072651</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>29383.40033072651</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>29414.26903072651</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>29364.26903072651</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>29164.54693072651</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>29395.61292867942</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>32151.54132867942</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>31851.54132867942</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>31758.46602867942</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>31774.18472867943</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>30244.44072867943</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-21 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 OMG ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>8375.5064</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>10512.7854</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>10512.7854</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>17371.57272630949</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>12586.68634285698</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -886,7 +886,7 @@
         <v>25136.36273072651</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>25136.36273072651</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>25136.36273072651</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>25136.36273072651</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>25170.0446307265</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>24203.30623072651</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>29130.04873072651</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>28008.52663072651</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>28008.52663072651</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>25829.87743072651</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>25825.95283072651</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>25825.95283072651</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>25825.95283072651</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>29105.47883072651</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>29383.40033072651</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>29414.26903072651</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>29364.26903072651</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>29164.54693072651</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>29395.61292867942</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>32151.54132867942</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>31851.54132867942</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>31758.46602867942</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>31774.18472867943</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>30244.44072867943</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>30245.44072867943</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>30187.76782867943</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>30187.76782867943</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>30187.76782867943</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>30189.39832867942</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>30313.48942867943</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>30313.48942867943</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>30313.48942867943</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>30281.13232867942</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>30234.73242867942</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>30168.47162867942</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>30168.47162867942</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>30120.31402867943</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>30057.71402867943</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>30053.26202867943</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>30053.26202867943</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>30099.29392867943</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>30099.29392867943</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>29767.37882867943</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>29949.89392867943</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>32233.20772867943</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>32190.40772867943</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>31918.36892867943</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>31918.36892867943</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>31918.36892867943</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
